--- a/xls结论文件/处理后_实验第二次/统计结果.xlsx
+++ b/xls结论文件/处理后_实验第二次/统计结果.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Ori_100_500</t>
   </si>
   <si>
-    <t>Sla_100_500</t>
-  </si>
-  <si>
     <t>Gre_100_500</t>
   </si>
   <si>
@@ -188,6 +185,94 @@
   </si>
   <si>
     <t>Gre_300_1500</t>
+  </si>
+  <si>
+    <t>60_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64_320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68_340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72_360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76_380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80_400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84_420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88_440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92_460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96_480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120_600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140_700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160_800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180_900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220_1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260_1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300_1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sla_100_500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -291,6 +376,7822 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>运行时间</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>整数规划对比线性算法</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3834668876207884"/>
+          <c:y val="5.7851239669421489E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.329989658833257E-2"/>
+          <c:y val="0.22338568935427575"/>
+          <c:w val="0.83346592415804821"/>
+          <c:h val="0.64529185917875964"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runningTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$A$62:$A$72</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$A$62:$A$66,Sheet2!$A$68:$A$72)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60_300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64_320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68_340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72_360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76_380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84_420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88_440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92_460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96_480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100_500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$B$2:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$B$2:$B$6,Sheet2!$B$8:$B$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.4595238095238088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.976190476190478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.988095238095244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.416666666666657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.727777777777774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.556250000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.48888888888888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607090040"/>
+        <c:axId val="607083376"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$B$15:$B$25</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$B$15:$B$19,Sheet2!$B$21:$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17380952380952383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19761904761904764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20238095238095241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30476190476190484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75624999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="607093568"/>
+        <c:axId val="607107288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="607090040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>红色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：整数规划</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>蓝色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：线性规划</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607083376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607083376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>整数规划运行时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607090040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="607107288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>线性规划运行时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607093568"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="607093568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="607107288"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>运行时间</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>线性对比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>greedy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>算法</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4961085710941556E-2"/>
+          <c:y val="0.26111111111111113"/>
+          <c:w val="0.82629555903019458"/>
+          <c:h val="0.57130431612715071"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$A$72:$A$82</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$A$72:$A$79,Sheet2!$A$81:$A$82)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100_500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120_600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140_700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160_800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180_900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200_1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220_1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240_1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280_1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300_1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$B$25:$B$35</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$B$25:$B$32,Sheet2!$B$34:$B$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.75624999999999987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2749999999999986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="671931920"/>
+        <c:axId val="671934272"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>greedy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet2!$B$48:$B$58</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet2!$B$48:$B$55,Sheet2!$B$57:$B$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.10857990384101868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17351393699645995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22587968111038209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3174786329269409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37537856101989747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55328680276870723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60479099750518794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71825946569442745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95002118349075315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1459759831428529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="671941720"/>
+        <c:axId val="671932312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="671931920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>红色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：线性规划</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>蓝色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：贪心算法</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671934272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="671934272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>线性规划运行时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671931920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671932312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>贪心算法运行时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671941720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="671941720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="671932312"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>覆盖价值</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>三者对比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>小规模</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12729334907118919"/>
+          <c:y val="0.16312725876006076"/>
+          <c:w val="0.8169088628793405"/>
+          <c:h val="0.6212206730068075"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>整数规划</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$62:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60_300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64_320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68_340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72_360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76_380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80_400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84_420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88_440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92_460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96_480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100_500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16493.738095238095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17576.190476190477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19927.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20842.17391304348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22144.152173913044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23004.166666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24311.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25485.555555555555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26173.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27407.111111111109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>线性规划</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$62:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60_300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64_320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68_340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72_360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76_380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80_400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84_420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88_440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92_460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96_480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100_500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$15:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15225.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16272.523809523809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17438.142857142859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18536.309523809523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19228.071428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20447.547619047618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21444.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22565.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23965.823529411766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23866.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25465.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>贪心算法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$62:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60_300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64_320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68_340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72_360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76_380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80_400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84_420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88_440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92_460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96_480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100_500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$38:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16020.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17086.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18211.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19430.380952380954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20268.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21556.380952380954</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23660.1875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24836.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25464.1875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26645.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="671944072"/>
+        <c:axId val="671947992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="671944072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="0070C0"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>蓝色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：整数规划</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>绿色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：贪心算法</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>红色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：线性规划</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45969906951061779"/>
+              <c:y val="0.8521739467821644"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671947992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="671947992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>覆盖价值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671944072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>覆盖价值</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>线性对比贪心</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>大规模</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38034979429889842"/>
+          <c:y val="2.7777659867988198E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$72:$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100_500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120_600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140_700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160_800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180_900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200_1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220_1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240_1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260_1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280_1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300_1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$25:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25465.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30577.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36341.949999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41006.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45800.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52219.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56338.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61502.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67295.350000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71868.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76797.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>贪心算法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$72:$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100_500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120_600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140_700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160_800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180_900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200_1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220_1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240_1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260_1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280_1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300_1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$48:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26645.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31940.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37407.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42757.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47866.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53513.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58482.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63682.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69308.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74105.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79441.350000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="610359056"/>
+        <c:axId val="610359840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="610359056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>蓝色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：贪心算法</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>红色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：线性规划</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45310787566897776"/>
+              <c:y val="0.8945488948568725"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610359840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="610359840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>覆盖价值</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610359056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>覆盖</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>POI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>数量</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>三者对比</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>小规模</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39339852587302959"/>
+          <c:y val="1.8390804597701149E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>整数规划</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$62:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60_300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64_320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68_340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72_360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76_380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80_400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84_420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88_440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92_460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96_480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100_500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>319.97619047619048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>线性规划</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$62:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60_300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64_320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68_340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72_360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76_380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80_400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84_420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88_440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92_460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96_480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100_500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$15:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>276.92857142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295.90476190476193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333.73809523809524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>369.73809523809524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>391.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>407.8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>431.0625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>437.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>463.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>贪心算法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$62:$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60_300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64_320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68_340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72_360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76_380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80_400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84_420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88_440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92_460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96_480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100_500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$38:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>282.78571428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302.1904761904762</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>322.3095238095238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>340.88095238095241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>359.52380952380952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.78571428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396.8125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416.4375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>435.0625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>453.4375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470.3125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="607089648"/>
+        <c:axId val="607084552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="607089648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>蓝色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：整数规划</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>绿色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：贪心算法</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>红色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：线性规划</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43170274759120403"/>
+              <c:y val="0.85189827133677265"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607084552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="607084552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>POI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607089648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>覆盖</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>POI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>数</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>线性对比贪心</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>大规模</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>线性规划</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$72:$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100_500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120_600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140_700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160_800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180_900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200_1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220_1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240_1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260_1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280_1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300_1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$25:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>463.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>660.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>747.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>835.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>951.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1026.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1117.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1312.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1404.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>贪心算法</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$72:$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100_500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120_600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140_700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160_800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180_900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200_1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220_1100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240_1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260_1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280_1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300_1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$48:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>470.3125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>564.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>658.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>756.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>844.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>947.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1034.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1120.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1228.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1309.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1405.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="671945640"/>
+        <c:axId val="671946424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="671945640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>红色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：贪心算法</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>蓝色</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>：线性规划</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43131913245925491"/>
+              <c:y val="0.90062111801242239"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671946424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="671946424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>覆盖</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>POI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671945640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452436</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481010</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,10 +8481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -977,7 +8878,7 @@
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0.75624999999999987</v>
@@ -994,7 +8895,7 @@
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>1.4300000000000002</v>
@@ -1011,7 +8912,7 @@
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>1.78</v>
@@ -1028,7 +8929,7 @@
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>2.93</v>
@@ -1045,7 +8946,7 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>4.96</v>
@@ -1062,7 +8963,7 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>6.0150000000000006</v>
@@ -1079,7 +8980,7 @@
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>9.2749999999999986</v>
@@ -1096,7 +8997,7 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>16.09</v>
@@ -1113,7 +9014,7 @@
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>13.425000000000001</v>
@@ -1130,7 +9031,7 @@
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>28.160000000000004</v>
@@ -1147,7 +9048,7 @@
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>30.79</v>
@@ -1340,7 +9241,7 @@
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>0.10857990384101868</v>
@@ -1357,7 +9258,7 @@
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>0.17351393699645995</v>
@@ -1374,7 +9275,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>0.22587968111038209</v>
@@ -1391,7 +9292,7 @@
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <v>0.3174786329269409</v>
@@ -1408,7 +9309,7 @@
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>0.37537856101989747</v>
@@ -1425,7 +9326,7 @@
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <v>0.55328680276870723</v>
@@ -1442,7 +9343,7 @@
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>0.60479099750518794</v>
@@ -1459,7 +9360,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55">
         <v>0.71825946569442745</v>
@@ -1476,7 +9377,7 @@
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>0.88777763843536373</v>
@@ -1493,7 +9394,7 @@
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>0.95002118349075315</v>
@@ -1510,7 +9411,7 @@
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>1.1459759831428529</v>
@@ -1523,10 +9424,116 @@
       </c>
       <c r="E58">
         <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>